--- a/opgave.xlsx
+++ b/opgave.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xbi\Documents\GitHub2valgfag\MMDvalgfag\uge 36\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xbi\Documents\GitHub2valgfag\MMDvalgfag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73AA4E5-CE83-4393-9DB9-27FBEA558097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28BE6B-4D3D-46DA-86AA-A13BC85889B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7A06937D-6626-4AC5-94B2-3581999C8277}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7A06937D-6626-4AC5-94B2-3581999C8277}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
   SEO</t>
   </si>
   <si>
-    <t>uge 39 sikkerhed</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Uge 36 
 af. Opgave </t>
   </si>
@@ -98,26 +95,13 @@
     <t>Uge 36 PHP opgave</t>
   </si>
   <si>
-    <t xml:space="preserve">uge 38 
-Normalisering </t>
-  </si>
-  <si>
-    <t>Uge 38 PHP session</t>
-  </si>
-  <si>
     <t>Uge 37 database</t>
-  </si>
-  <si>
-    <t>Uge 37 Php form</t>
   </si>
   <si>
     <t>Certificate
 WordPress: Developing Secure Sites</t>
   </si>
   <si>
-    <t>Uge 39 SQL</t>
-  </si>
-  <si>
     <t>color code: individule</t>
   </si>
   <si>
@@ -127,15 +111,32 @@
     <t>Uge 40 Projekt Mini CMS  start</t>
   </si>
   <si>
-    <t xml:space="preserve">Uge 43 Eksamens
-Projekt </t>
+    <t xml:space="preserve">uge 38  ER diagram
+</t>
+  </si>
+  <si>
+    <t>Uge 38  Php form</t>
+  </si>
+  <si>
+    <t>Uge 39 PHP session</t>
+  </si>
+  <si>
+    <t>uge 40 sikkerhed</t>
+  </si>
+  <si>
+    <t>Uge 39 Normalisering +
+SQL</t>
+  </si>
+  <si>
+    <t>Uge 43 Eksamens
+Projekt start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,12 +150,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -589,7 +584,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,43 +624,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>4</v>
@@ -761,7 +756,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>

--- a/opgave.xlsx
+++ b/opgave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xbi\Documents\GitHub2valgfag\MMDvalgfag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28BE6B-4D3D-46DA-86AA-A13BC85889B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0235253-8B48-4697-9F2C-F350011E4AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7A06937D-6626-4AC5-94B2-3581999C8277}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{7A06937D-6626-4AC5-94B2-3581999C8277}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 SQL</t>
   </si>
   <si>
-    <t>Uge 43 Eksamens
+    <t>Uge 44 Eksamens
 Projekt start</t>
   </si>
 </sst>
@@ -584,7 +584,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
